--- a/Lab1/SAT.xlsx
+++ b/Lab1/SAT.xlsx
@@ -452,10 +452,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>15625000</v>
+        <v>0.01016469998285174</v>
       </c>
       <c r="D2" t="n">
-        <v>15625000</v>
+        <v>0.003650899976491928</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>15625000</v>
+        <v>0.01510909997159615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.00382689997786656</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>46875000</v>
+        <v>0.02960970002459362</v>
       </c>
       <c r="D4" t="n">
-        <v>15625000</v>
+        <v>0.004403800005093217</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>31250000</v>
+        <v>0.04162960004759952</v>
       </c>
       <c r="D5" t="n">
-        <v>15625000</v>
+        <v>0.004621499974746257</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>78125000</v>
+        <v>0.06073440000182018</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.005293600028380752</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>62500000</v>
+        <v>0.08086049999110401</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.00490999995963648</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>93750000</v>
+        <v>0.1101299999863841</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.006257499975617975</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>78125000</v>
+        <v>0.1504528000368737</v>
       </c>
       <c r="D9" t="n">
-        <v>15625000</v>
+        <v>0.00552339997375384</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>140625000</v>
+        <v>0.1776568000204861</v>
       </c>
       <c r="D10" t="n">
-        <v>15625000</v>
+        <v>0.00608189997728914</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>218750000</v>
+        <v>0.2360109000001103</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.005557800002861768</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>203125000</v>
+        <v>0.3025845999945886</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.00739759998396039</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>281250000</v>
+        <v>0.374388900003396</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.009411700011696666</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>406250000</v>
+        <v>0.4202433999744244</v>
       </c>
       <c r="D14" t="n">
-        <v>15625000</v>
+        <v>0.008233800006564707</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>468750000</v>
+        <v>0.5287536000250839</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.009862700011581182</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>328125000</v>
+        <v>0.6028909000451677</v>
       </c>
       <c r="D16" t="n">
-        <v>15625000</v>
+        <v>0.009819099970627576</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>718750000</v>
+        <v>0.7291591999819502</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.01213510002708063</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>734375000</v>
+        <v>0.8284893000381999</v>
       </c>
       <c r="D18" t="n">
-        <v>15625000</v>
+        <v>0.01230850000865757</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>796875000</v>
+        <v>0.9549834000063129</v>
       </c>
       <c r="D19" t="n">
-        <v>15625000</v>
+        <v>0.01509090000763535</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>1015625000</v>
+        <v>1.10447129997192</v>
       </c>
       <c r="D20" t="n">
-        <v>15625000</v>
+        <v>0.0163575999904424</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>1031250000</v>
+        <v>1.260699899983592</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.01764400000683963</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>1234375000</v>
+        <v>1.428793600003701</v>
       </c>
       <c r="D22" t="n">
-        <v>31250000</v>
+        <v>0.01993589999619871</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>1046875000</v>
+        <v>1.641564099991228</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.02057320001767948</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>1015625000</v>
+        <v>1.809389400004875</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.02862579998327419</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>1312500000</v>
+        <v>2.080974799988326</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.02830349997384474</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>1718750000</v>
+        <v>2.554132900026161</v>
       </c>
       <c r="D26" t="n">
-        <v>31250000</v>
+        <v>0.03120189998298883</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>1703125000</v>
+        <v>2.596409499994479</v>
       </c>
       <c r="D27" t="n">
-        <v>31250000</v>
+        <v>0.03147380001610145</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>1859375000</v>
+        <v>2.912712699966505</v>
       </c>
       <c r="D28" t="n">
-        <v>15625000</v>
+        <v>0.03531370003474876</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>2359375000</v>
+        <v>3.338391600002069</v>
       </c>
       <c r="D29" t="n">
-        <v>62500000</v>
+        <v>0.1263440999900922</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>2187500000</v>
+        <v>3.457794999994803</v>
       </c>
       <c r="D30" t="n">
-        <v>31250000</v>
+        <v>0.04574099997989833</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v>2500000000</v>
+        <v>3.836401899985503</v>
       </c>
       <c r="D31" t="n">
-        <v>31250000</v>
+        <v>0.04505620000418276</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="n">
-        <v>3218750000</v>
+        <v>4.329792500007898</v>
       </c>
       <c r="D32" t="n">
-        <v>46875000</v>
+        <v>0.05077209998853505</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="n">
-        <v>3484375000</v>
+        <v>4.472219999996014</v>
       </c>
       <c r="D33" t="n">
-        <v>62500000</v>
+        <v>0.06041840004036203</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>3687500000</v>
+        <v>4.986833799979649</v>
       </c>
       <c r="D34" t="n">
-        <v>62500000</v>
+        <v>0.05286560003878549</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="n">
-        <v>3843750000</v>
+        <v>5.423984699998982</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.06416790001094341</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v>3812500000</v>
+        <v>5.962400899967179</v>
       </c>
       <c r="D36" t="n">
-        <v>93750000</v>
+        <v>0.06630210002185777</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v>4015625000</v>
+        <v>6.415677800017875</v>
       </c>
       <c r="D37" t="n">
-        <v>250000000</v>
+        <v>0.2184278999920934</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="n">
-        <v>4156250000</v>
+        <v>7.340532400005031</v>
       </c>
       <c r="D38" t="n">
-        <v>46875000</v>
+        <v>0.07937339995987713</v>
       </c>
     </row>
   </sheetData>
